--- a/PicoGreen_Plots/20240112_PicoGreen_RAM.xlsx
+++ b/PicoGreen_Plots/20240112_PicoGreen_RAM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aryellewright/Documents/Documents - Aryelle’s MacBook Air/Kumar-Biomaterials-Lab/PicoGreen_Plots/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA6BCDE0-955F-0548-8FA2-621104267C6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49F2B0DC-E2D2-F843-8CB3-DB8DAECC7EE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21640" yWindow="940" windowWidth="24800" windowHeight="16360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="960" yWindow="2260" windowWidth="24800" windowHeight="16360" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plate 1 - Sheet1" sheetId="1" r:id="rId1"/>
@@ -1408,8 +1408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{087BE7F2-5ACF-1341-B1BC-10F9251C0A13}">
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1609,8 +1609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15B41F3D-BF91-B045-9F91-947E10501802}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1639,7 +1639,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="17" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="B3">
         <v>42.475596529284168</v>
@@ -1650,7 +1650,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="17" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="B4">
         <v>59.127575921908893</v>
@@ -1661,7 +1661,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="17" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="B5">
         <v>39.167570498915403</v>
@@ -1672,7 +1672,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="17" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="B6">
         <v>41.072396963123644</v>
@@ -1683,7 +1683,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="17" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="B7">
         <v>40.560601952277658</v>
